--- a/ScheduleAndAgenda.xlsx
+++ b/ScheduleAndAgenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DevInADay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559B85D8-9216-42EA-8AB0-1F75D209DA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47CE8D4-82E0-46DA-B40B-96D599CD4282}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AF716625-45D3-4CA7-BF59-AA68E065CB06}"/>
+    <workbookView xWindow="3852" yWindow="276" windowWidth="17280" windowHeight="8964" xr2:uid="{AF716625-45D3-4CA7-BF59-AA68E065CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>START</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Module 3 Lab</t>
-  </si>
-  <si>
-    <t>Power BI Embedding Competition</t>
   </si>
   <si>
     <t>Module 5 Lecture</t>
@@ -136,13 +133,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E55157-1248-4852-8AF4-7F2506C7D37A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,30 +468,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="2">
-        <v>0.40625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -502,10 +499,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>0.40625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="B4" s="2">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -513,10 +510,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>0.4375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B5" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -524,10 +521,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B6" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -535,10 +532,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B7" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -546,10 +543,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B8" s="2">
-        <v>0.11458333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -557,35 +554,24 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>0.11458333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="B9" s="2">
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B10" s="2">
-        <v>0.15625</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>0.15625</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
